--- a/EstudioMedios.xlsx
+++ b/EstudioMedios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sosa\Documents\GitHub\BigData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejo\Documents\BigData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBA1809-9F74-477A-801C-E7F15E1C17FC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asignación General" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -114,16 +115,36 @@
   </si>
   <si>
     <t>Las recientes encuestas muestran un empate técnico entre Sergio Fajardo e Iván Duque</t>
+  </si>
+  <si>
+    <t>Dinero</t>
+  </si>
+  <si>
+    <t>Sergio Fajardo habla sobre sus propuestas económicas en Al Tablero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El candidato presidencial Sergio Fajardo en nuestro programa en vivo 'Al Tablero', hablando sobre sus propuestas económicas </t>
+  </si>
+  <si>
+    <t>http://www.dinero.com/economia/multimedia/sergio-fajardo-en-al-tablero/256007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,10 +194,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -187,8 +209,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,11 +507,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +596,9 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,17 +606,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="77.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,97 +634,108 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7">
+        <v>43160</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{63E0DD6C-732B-432B-BAEA-AF8B1148C840}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -797,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -915,7 +970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1032,7 +1087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1149,7 +1204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1266,7 +1321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1383,7 +1438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1500,11 +1555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1601,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/EstudioMedios.xlsx
+++ b/EstudioMedios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Asignación General" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -114,6 +114,60 @@
   </si>
   <si>
     <t>Las recientes encuestas muestran un empate técnico entre Sergio Fajardo e Iván Duque</t>
+  </si>
+  <si>
+    <t>http://www.elcolombiano.com/colombia/politica/derecha-e-izquierda-de-nuevo-las-protagonistas-FI8309447</t>
+  </si>
+  <si>
+    <t>Marzo 6/2018</t>
+  </si>
+  <si>
+    <t>Derecha e izquierda de nuevo las protagonistas</t>
+  </si>
+  <si>
+    <t>Santos dice que fue un "error" que Farc se presentaran a contienda electoral tan rápido</t>
+  </si>
+  <si>
+    <t>Marzo 8/2018</t>
+  </si>
+  <si>
+    <t>http://www.elcolombiano.com/elecciones-2018-colombia/santos-entiende-retiro-de-timochenko-de-la-contienda-electoral-FA8332061</t>
+  </si>
+  <si>
+    <t>Sin candidato presidencial, Farc se conforma con el congreso</t>
+  </si>
+  <si>
+    <t>Marzo 9/2018</t>
+  </si>
+  <si>
+    <t>http://www.elcolombiano.com/colombia/politica/sin-candidato-presidencial-farc-se-conforma-con-el-congreso-AB8333626</t>
+  </si>
+  <si>
+    <t>Los candidatos colombianos que copieron propagandas extrangeras</t>
+  </si>
+  <si>
+    <t>http://www.elcolombiano.com/elecciones-2018-colombia/candidatos-colombianos-que-copiaron-propagandas-extranjeras-FF8337878</t>
+  </si>
+  <si>
+    <t>Por fin habrá tarjetón presidencial.</t>
+  </si>
+  <si>
+    <t>Marzo 10/2018</t>
+  </si>
+  <si>
+    <t>http://www.elcolombiano.com/elecciones-2018-colombia/por-fin-habra-tarjeton-presidencial-XE8341761</t>
+  </si>
+  <si>
+    <t>El Vice, una figura con un poder creciente</t>
+  </si>
+  <si>
+    <t>http://www.elcolombiano.com/elecciones-2018-colombia/el-vice-una-figura-con-un-poder-creciente-CD8342602</t>
+  </si>
+  <si>
+    <t>Estos son los Candidatos Transparentes.</t>
+  </si>
+  <si>
+    <t>http://www.elcolombiano.com/elecciones-2018-colombia/estos-son-los-candidatos-transparentes-BD8342641</t>
   </si>
 </sst>
 </file>
@@ -469,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1503,14 +1557,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="4" width="112.28515625" customWidth="1"/>
   </cols>
@@ -1544,46 +1598,88 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/EstudioMedios.xlsx
+++ b/EstudioMedios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejo\Documents\BigData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBA1809-9F74-477A-801C-E7F15E1C17FC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DE462A-92F8-4A87-9591-80499BFA8239}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -127,13 +127,103 @@
   </si>
   <si>
     <t>http://www.dinero.com/economia/multimedia/sergio-fajardo-en-al-tablero/256007</t>
+  </si>
+  <si>
+    <t>http://www.dinero.com/inversionistas/articulo/peso-colombiano-se-mantiene-gracias-al-petroleo-y-las-encuestas/256927</t>
+  </si>
+  <si>
+    <t>Las encuesta de intención de voto para las elecciones presidenciales muestran una mayor probabilidad de victoria para candidatos pro mercado.</t>
+  </si>
+  <si>
+    <t>Encuestas y petróleo le ayudan al peso colombiano</t>
+  </si>
+  <si>
+    <t>Iván Duque es el candidato de la coalición del No</t>
+  </si>
+  <si>
+    <t>Este domingo se llevaron a cabo las elecciones para senadores y representantes a la Cámara, a la vez que se realizaron las consultas “Inclusión Social para la Paz” y “Gran Consulta por Colombia” que dejó como ganador al candidato del Centro Democrático.</t>
+  </si>
+  <si>
+    <t>http://www.dinero.com/pais/articulo/ivan-duque-elegido-como-candidato-presidencial/256231</t>
+  </si>
+  <si>
+    <t>Iván Duque: propuestas económicas para la presidencia</t>
+  </si>
+  <si>
+    <t>El candidato presidencial del Centro Democrático, Iván Duque, en 'Al Tablero', hablando sobre sus propuestas económicas de cara a las elecciones de mayo. Usted puede seguir la transmisión en este espacio y realizar sus preguntas a través de la página de Facebook o desde twitter.</t>
+  </si>
+  <si>
+    <t>http://www.dinero.com/pais/multimedia/propuestas-economicas-de-ivan-duque-en-al-tablero/254580</t>
+  </si>
+  <si>
+    <t>El liderazgo de Gustavo Petro tiene pensando a Wall Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El liderazgo de Gustavo Petro en las encuestas ya tiene pensando a Wall Street. “Los inversionistas no han caído en cuenta de que existe la posibilidad de que este candidato gane y cuando lo hagan se va presentar una fuerte liquidación de los bonos y la moneda colombiana”, </t>
+  </si>
+  <si>
+    <t>http://www.dinero.com/empresas/confidencias-on-line/articulo/gustavo-petro-preocupa-a-wall-street/255306#</t>
+  </si>
+  <si>
+    <t>Gustavo Petro es el candidato presidencial de Inclusión Social para la Paz</t>
+  </si>
+  <si>
+    <t>Gustavo Petro se enfrentaba en la consulta “Inclusión Social para la Paz” al exalcalde de Santa Marta, Carlos Caicedo, quien también había presentado su candidatura por firmas.</t>
+  </si>
+  <si>
+    <t>http://www.dinero.com/pais/articulo/gustavo-petro-elegido-como-candidato-presidencial-2018/256232</t>
+  </si>
+  <si>
+    <t>Gustavo Petro sería riesgoso para relaciones con Estados Unidos</t>
+  </si>
+  <si>
+    <t>Uno de los paneles más importantes que desarrollará el foro de la Cámara de Comercio Colombo Americana (AmCham Colombia) el próximo 22 de marzo en El Nogal es la conclusión de un estudio realizado por Control Risk sobre cuál o cuáles candidatos presidenciales presentan riesgos y darían un giro fuerte en la relación con Estados Unidos, basado en sus posiciones históricas</t>
+  </si>
+  <si>
+    <t>http://www.dinero.com/empresas/confidencias-on-line/articulo/amcham-presenta-estudio-de-control-risk-sobre-candidatos/256320#</t>
+  </si>
+  <si>
+    <t>¿Qué candidato presidencial es el rey de las redes sociales?</t>
+  </si>
+  <si>
+    <t>Mientras Germán Vargas Lleras tiene el hashtag que más se utiliza en Twitter y es el que genera mayor conversación, el candidato Gustavo Petro fue el más mencionado por los usuarios de las redes en el últimos mes.</t>
+  </si>
+  <si>
+    <t>http://www.dinero.com/pais/articulo/el-candidato-presidencial-preferido-en-redes-sociales/256219</t>
+  </si>
+  <si>
+    <t>Propuestas sobre impuestos del candidato Germán Vargas Lleras</t>
+  </si>
+  <si>
+    <t>Dinero le hizo preguntas puntuales en materia de impuestos a los candidatos presidenciales que puntean las encuestas. Aquí las respuestas de Germán Vargas LLeras.</t>
+  </si>
+  <si>
+    <t>http://www.dinero.com/edicion-impresa/caratula/articulo/propuestas-sobre-impuestos-de-german-vargas-lleras/256456</t>
+  </si>
+  <si>
+    <t>Propuestas sobre impuestos del candidato Sergio Fajardo</t>
+  </si>
+  <si>
+    <t>Dinero le hizo preguntas puntuales en materia de impuestos a los candidatos presidenciales que puntean las encuestas. Aquí las respuestas de Sergio Fajardo.</t>
+  </si>
+  <si>
+    <t>http://www.dinero.com/edicion-impresa/caratula/articulo/propuestas-sobre-impuestos-de-sergio-fajardo/256461</t>
+  </si>
+  <si>
+    <t>Sergio Fajardo se compromete a no aumentar la edad de pensión si es presidente</t>
+  </si>
+  <si>
+    <t>El candidato presidencial por Alianza Verde, Sergio Farjardo, se comprometió este viernes a no aumentar la edad para pensionarse, según lo han propuesto diferentes analista e instituciones como reforma al sistema.</t>
+  </si>
+  <si>
+    <t>http://www.dinero.com/edicion-impresa/pais/articulo/sergio-fajardo-se-compromete-a-no-aumentar-la-edad-de-pension/255174</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +238,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri "/>
     </font>
   </fonts>
   <fills count="4">
@@ -198,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -226,6 +321,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -514,13 +627,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -528,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -536,7 +649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -544,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -552,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -560,7 +673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -568,7 +681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -576,7 +689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -584,7 +697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -592,7 +705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -609,18 +722,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="77.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -634,103 +747,197 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" ht="150">
+      <c r="A2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="13">
+        <v>43125</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="120">
+      <c r="A3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="13">
+        <v>43140</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="150">
+      <c r="A4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="13">
+        <v>43151</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75">
+      <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B5" s="7">
         <v>43160</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="120">
+      <c r="A6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="13">
+        <v>43169</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="150">
+      <c r="A7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="13">
+        <v>43170</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="105">
+      <c r="A8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13">
+        <v>43170</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90">
+      <c r="A9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="13">
+        <v>43174</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="90">
+      <c r="A10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="13">
+        <v>43174</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="210">
+      <c r="A11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="13">
+        <v>43179</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="85.5">
+      <c r="A12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="13">
+        <v>43187</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D12">
+    <sortCondition ref="B1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{63E0DD6C-732B-432B-BAEA-AF8B1148C840}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{63E0DD6C-732B-432B-BAEA-AF8B1148C840}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{E18585DB-5C71-4139-A4B5-B348E2209054}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{17DA8C2D-C869-416D-9C1E-714DB389F230}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{44A3A4E3-E92B-40C1-AEF3-6EB4130284FC}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{3B297BC8-D37A-42C7-B5E8-6066658657FD}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{F49E5180-BCA4-4418-806D-51AB3D73C171}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{D9A14D56-1C4C-47ED-8028-97D20B996B0E}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{5561941F-5F29-4CE4-B617-9E58DA9E6CBA}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{4EF24BDC-D7C3-4D56-8B81-9DE3EC4D03D0}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{EE1C8E74-1F51-4684-AE14-92565BF88E09}"/>
+    <hyperlink ref="D3" r:id="rId11" xr:uid="{C1EB246C-8444-4D45-92AF-A5D9A3B88871}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -742,13 +949,13 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -762,85 +969,85 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -859,14 +1066,14 @@
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -880,85 +1087,85 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -977,13 +1184,13 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -997,85 +1204,85 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1094,13 +1301,13 @@
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -1114,85 +1321,85 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1211,13 +1418,13 @@
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -1231,85 +1438,85 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1328,13 +1535,13 @@
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -1348,85 +1555,85 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1445,13 +1652,13 @@
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -1465,85 +1672,85 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1562,7 +1769,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
@@ -1570,7 +1777,7 @@
     <col min="4" max="4" width="112.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -1584,7 +1791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -1598,79 +1805,79 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="6"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>

--- a/EstudioMedios.xlsx
+++ b/EstudioMedios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejo\Documents\BigData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia\Documents\GitHub\BigData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DE462A-92F8-4A87-9591-80499BFA8239}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A339A690-9F88-469E-8447-A1CE3DDB55AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asignación General" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -217,6 +217,154 @@
   </si>
   <si>
     <t>http://www.dinero.com/edicion-impresa/pais/articulo/sergio-fajardo-se-compromete-a-no-aumentar-la-edad-de-pension/255174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La 'U' y el Partido Conservador, en busca de un candidato </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dos de los partidos que podrían inclinar la balanza en la elección presidencial (el Conservador y ‘la U’) nombraron este miércoles a sus jefes como delegatarios para conversar con los candidatos Germán Vargas e Iván Duque y tratar de definir alianzas antes de la primera vuelta. </t>
+  </si>
+  <si>
+    <t>http://www.eltiempo.com/elecciones-colombia-2018/presidenciales/partidos-de-la-u-y-conservador-buscan-candidato-a-presidencia-194214</t>
+  </si>
+  <si>
+    <t>Así fue la jornada de las elecciones a consulta y congreso en Bogotá</t>
+  </si>
+  <si>
+    <t>Desde las ocho de la mañana se abrieron los puestos de votación en Bogotá. A esa hora comenzaron a llegar los sufragantes, hasta las cuatro de la tarde. 18 representantes a la Cámara por el Distrito, más senadores y consultas partidistas, los tarjetones que reclamaron los electores</t>
+  </si>
+  <si>
+    <t>http://www.eltiempo.com/bogota/votaciones-en-bogota-minuto-a-minuto-192514</t>
+  </si>
+  <si>
+    <t>Altercado entre seguidores durante debate presidencial en Barranquilla</t>
+  </si>
+  <si>
+    <t>En medio del debate presidencial en Barranquilla, hubo confrontación entre los asistentes, quienes demostraron ser simpatizantes de diferentes candidatos.</t>
+  </si>
+  <si>
+    <t>http://www.eltiempo.com/colombia/barranquilla/altercado-entre-seguidores-de-candidatos-en-debate-de-barranquilla-201606</t>
+  </si>
+  <si>
+    <t>‘Mi única alianza es con la gente’: Piedad Córdoba</t>
+  </si>
+  <si>
+    <t>La candidata presidencial por el movimiento Poder Ciudadano, Piedad Córdoba, despejó una duda que ha surgido en varios círculos políticos en las últimas semanas: aseguró que no hará ningún tipo de alianza con otras campañas a la jefatura del Estado para la primera vuelta, el 27 de mayo.</t>
+  </si>
+  <si>
+    <t>http://www.eltiempo.com/elecciones-colombia-2018/presidenciales/entrevista-a-piedad-cordoba-candidata-presidencial-199700</t>
+  </si>
+  <si>
+    <t>Reflexión en la campaña del Centro Democrático / Diario de campaña</t>
+  </si>
+  <si>
+    <t>Apaciguar las diferencias y frenar la polarización fue la invitación que hicieron Iván Duque y su fórmula vicepresidencial, Marta Lucía Ramírez, tras un oficio religioso al que asistieron en Popayán, durante la Semana Santa. Junto a ellos estuvo el líder del Centro Democrático Carlos Holmes Trujillo y el exvicepresidente Angelino Garzón, quien la semana pasada se sumó a esta campaña.</t>
+  </si>
+  <si>
+    <t>http://www.eltiempo.com/elecciones-colombia-2018/presidenciales/semana-de-reflexion-en-la-campana-del-centro-democratico-diario-de-campana-200170</t>
+  </si>
+  <si>
+    <t>Los ‘chicharrones’ de política exterior que tendrá el próximo Gobierno</t>
+  </si>
+  <si>
+    <t>Expertos analizan los desafíos que le esperan al nuevo presidente en las relaciones internacionales.</t>
+  </si>
+  <si>
+    <t>http://www.eltiempo.com/elecciones-colombia-2018/presidenciales/retos-de-politica-exterior-con-que-tendra-que-lidiar-el-proximo-gobierno-de-colombia-200162</t>
+  </si>
+  <si>
+    <t>¿Gustavo Petro es derrotable en la primera vuelta presidencial?</t>
+  </si>
+  <si>
+    <t>Vargas advierte peligros de entregar el país a improvisación de la izquierda o a la inexperiencia.</t>
+  </si>
+  <si>
+    <t>http://www.eltiempo.com/elecciones-colombia-2018/presidenciales/gustavo-petro-es-derrotable-en-la-primera-vuelta-presidencial-200140</t>
+  </si>
+  <si>
+    <t>Posible unión De la Calle-Fajardo genera descontentos</t>
+  </si>
+  <si>
+    <t>Los candidatos presidenciales Humberto de la Calle y Sergio Fajardo no solo enfrentan problemas jurídicos que se atraviesan a su posible alianza, sino que ahora resultaron voces de algunos partidos aliados que tampoco quieren que se unan.</t>
+  </si>
+  <si>
+    <t>http://www.eltiempo.com/elecciones-colombia-2018/presidenciales/reparos-de-partidos-liberal-y-polo-por-alianza-entre-de-la-calle-y-fajardo-200600</t>
+  </si>
+  <si>
+    <t>Jorge Eastman se adhiere a la campaña de Duque / Diario de campaña</t>
+  </si>
+  <si>
+    <t>Eastman fue la fórmula a la vicepresidencia de Juan Carlos Pinzón.</t>
+  </si>
+  <si>
+    <t>http://www.eltiempo.com/elecciones-colombia-2018/presidenciales/jorge-mario-eastman-se-adhirio-a-la-campana-de-ivan-duque-200598</t>
+  </si>
+  <si>
+    <t>Antigua fórmula de Juan Carlos Pinzón se une a campaña de Iván Duque</t>
+  </si>
+  <si>
+    <t>Jorge Mario Eastman dijo que su decisión fue porque considera que Duque lidera un cambio.</t>
+  </si>
+  <si>
+    <t>http://www.eltiempo.com/elecciones-colombia-2018/presidenciales/jorge-mario-eastman-se-unio-a-la-campana-presidencial-de-ivan-duque-200452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Candidatos presidenciales dicen que no aumentarán edad de jubilación</t>
+  </si>
+  <si>
+    <t>La mayoría coincide en que lo que debe hacerse es una reforma profunda al sistema pensional.</t>
+  </si>
+  <si>
+    <t>http://www.eltiempo.com/elecciones-colombia-2018/presidenciales/candidatos-presidenciales-proponen-reformas-de-pension-200602</t>
+  </si>
+  <si>
+    <t>Partido de ‘la U’ decidió apoyar a Gemán Vargas Lleras</t>
+  </si>
+  <si>
+    <t>Los congresistas esperan que se logre un acuerdo programático que sea refrendado el lunes.</t>
+  </si>
+  <si>
+    <t>http://www.eltiempo.com/elecciones-colombia-2018/presidenciales/partido-de-la-u-apoyara-a-vargas-lleras-en-primera-vuelta-201370</t>
+  </si>
+  <si>
+    <t>CM&amp; revela nueva encuesta del Centro Nacional de Consultoría</t>
+  </si>
+  <si>
+    <t>El candidato del Centro Democrático, Iván Duque, se mantiene adelante en intención de voto.</t>
+  </si>
+  <si>
+    <t>http://www.eltiempo.com/elecciones-colombia-2018/presidenciales/ivan-duque-encabeza-nueva-encuesta-del-centro-nacional-de-consultoria-201034</t>
+  </si>
+  <si>
+    <t>Los cuentos del malvado lobo feroz que le inventan a Gustavo Petro</t>
+  </si>
+  <si>
+    <t>En #Columneando Paola Ochoa habla de historias que rodean la candidatura de Petro a la Presidencia.</t>
+  </si>
+  <si>
+    <t>http://www.eltiempo.com/cultura/gente/columneando-con-paola-ochoa-sobre-historias-inventadas-que-rodean-la-candidatura-de-petro-200440</t>
+  </si>
+  <si>
+    <t>Debate presidencial en Medellín entre Duque, Petro, Vargas y Fajardo</t>
+  </si>
+  <si>
+    <t>Discutieron temas de la situación fiscal del país, corrupción, sistema político y otros.</t>
+  </si>
+  <si>
+    <t>http://www.eltiempo.com/elecciones-colombia-2018/presidenciales/debate-presidencial-en-medellin-entre-duque-petro-vargas-y-fajardo-201044</t>
+  </si>
+  <si>
+    <t>Las intervenciones claves del debate presidencial en Barranquilla</t>
+  </si>
+  <si>
+    <t>Este fue el minuto a minuto con las propuestas de los aspirantes para el Caribe y el país.</t>
+  </si>
+  <si>
+    <t>http://www.eltiempo.com/elecciones-colombia-2018/presidenciales/debate-con-candidatos-presidenciales-en-barranquilla-en-vivo-201526</t>
   </si>
 </sst>
 </file>
@@ -245,7 +393,7 @@
       <name val="Calibri "/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +412,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -288,12 +442,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -340,12 +564,150 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -356,6 +718,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07FA8116-BE86-4ECB-B7A8-4721A97EC074}" name="Table1" displayName="Table1" ref="A2:D18" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{EB8F38F4-1B84-4774-AC96-837F12E2F185}" name="Titulo noticia" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{712CA7CA-ADC4-4616-886E-B2F3F82AC303}" name="Fecha " dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{8F0EFB71-8DBA-4587-B53B-30A5FEDB64EE}" name="Descripción" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{82856B31-DDFB-4A63-AF39-290D09995A67}" name="Link" dataDxfId="0" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,7 +1001,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
@@ -722,11 +1096,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
@@ -943,118 +1317,279 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A2:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" customWidth="1"/>
+    <col min="4" max="4" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+    <row r="3" spans="1:4" ht="90">
+      <c r="A3" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="22">
+        <v>43173</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="90">
+      <c r="A4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="22">
+        <v>43171</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45">
+      <c r="A5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="22">
+        <v>43195</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90">
+      <c r="A6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="22">
+        <v>43189</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="120">
+      <c r="A7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="22">
+        <v>43191</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45">
+      <c r="A8" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="22">
+        <v>43191</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="120">
+      <c r="A9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="22">
+        <v>43191</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75">
+      <c r="A10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="22">
+        <v>43192</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45">
+      <c r="A11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="22">
+        <v>43192</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45">
+      <c r="A12" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="22">
+        <v>43192</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60">
+      <c r="A13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="22">
+        <v>43192</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45">
+      <c r="A14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="22">
+        <v>43194</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45">
+      <c r="A15" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="22">
+        <v>43194</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45">
+      <c r="A16" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="22">
+        <v>43192</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45">
+      <c r="A17" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="22">
+        <v>43193</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45">
+      <c r="A18" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="22">
+        <v>43195</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{9D0565DA-C1BE-4C14-AC0F-1FEAF3B33E86}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{66C3D307-A843-4D0E-9EA6-CB1117D0325E}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{1AA2161F-02D6-48F5-AF7C-33E456E74125}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{81E43D25-AF03-4D57-A9F3-167128A82776}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{B7ED5353-FD94-4101-8515-9B7DE5BB51E2}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{3FE36CF8-281D-4092-A5E6-5090B909FF9E}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{9E947822-B96C-41C8-A508-86CF6F54B5C6}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{E75DC365-3A66-4E8C-8D8D-3FF6AC32C1C5}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{834771AD-7543-4425-B9FC-3CECB80567C7}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{EEE49F1B-59E8-4C0C-8ED6-4B313C495AFF}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{69D2FFD0-DE46-4907-A049-A88A7B658934}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{42C01687-0C99-4AB6-90E7-A267804C432B}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{1216247B-ED01-42CD-8008-C8DC6AA3D847}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{264E2444-DD9C-4FB7-8A17-3F8DD8A53B07}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{E33D5D3E-5F9C-45E1-8B1D-DDF002F88D94}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId16"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1066,7 +1601,7 @@
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
@@ -1184,7 +1719,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
@@ -1301,7 +1836,7 @@
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
@@ -1418,7 +1953,7 @@
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
@@ -1535,7 +2070,7 @@
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
@@ -1652,7 +2187,7 @@
       <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
@@ -1769,7 +2304,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
